--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teackwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBBE8F1-C0B5-4E88-8ED6-538C512903DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C58A84-097F-4B7F-B4BF-BD84CA147550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,24 +763,27 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <f>(C7*$M$2)</f>
-        <v>788445</v>
+        <v>805966</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3229745</v>
+        <v>3247266</v>
       </c>
       <c r="F7" s="3">
         <f>ROUNDDOWN(E7*0.095,0)</f>
-        <v>306825</v>
+        <v>308490</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="3"/>
-        <v>2922920</v>
-      </c>
+        <v>2938776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="M8" s="1"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teackwah-dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C58A84-097F-4B7F-B4BF-BD84CA147550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD5240-9ACA-4167-A690-D762B5BCD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="28800" windowHeight="15345" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -602,27 +602,27 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <f>A2+B2</f>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1">
         <f>((B2+A2)*$M$2)</f>
-        <v>1033739</v>
+        <v>1594411</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E7" si="0">D2+$L$2</f>
-        <v>3475039</v>
+        <v>4035711</v>
       </c>
       <c r="F2" s="3">
-        <f>ROUNDDOWN(E2*0.083,0)</f>
-        <v>288428</v>
+        <f>ROUNDDOWN(E2*0.085,0)</f>
+        <v>343035</v>
       </c>
       <c r="G2" s="2">
         <f>E2-F2</f>
-        <v>3186611</v>
+        <v>3692676</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1">
@@ -662,12 +662,12 @@
         <v>3334871</v>
       </c>
       <c r="F3" s="3">
-        <f>ROUNDDOWN(E3*0.083,0)</f>
-        <v>276794</v>
+        <f>ROUNDDOWN(E3*0.085,0)</f>
+        <v>283464</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G7" si="3">E3-F3</f>
-        <v>3058077</v>
+        <v>3051407</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -691,12 +691,12 @@
         <v>3264787</v>
       </c>
       <c r="F4" s="3">
-        <f>ROUNDDOWN(E4*0.083,0)</f>
-        <v>270977</v>
+        <f>ROUNDDOWN(E4*0.085,0)</f>
+        <v>277506</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="3"/>
-        <v>2993810</v>
+        <v>2987281</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -720,12 +720,12 @@
         <v>3194703</v>
       </c>
       <c r="F5" s="3">
-        <f>ROUNDDOWN(E5*0.083,0)</f>
-        <v>265160</v>
+        <f>ROUNDDOWN(E5*0.085,0)</f>
+        <v>271549</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="3"/>
-        <v>2929543</v>
+        <v>2923154</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -749,12 +749,12 @@
         <v>3404955</v>
       </c>
       <c r="F6" s="3">
-        <f>ROUNDDOWN(E6*0.083,0)</f>
-        <v>282611</v>
+        <f>ROUNDDOWN(E6*0.085,0)</f>
+        <v>289421</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="3"/>
-        <v>3122344</v>
+        <v>3115534</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
         <f>(C7*$M$2)</f>
-        <v>805966</v>
+        <v>1173907</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3247266</v>
+        <v>3615207</v>
       </c>
       <c r="F7" s="3">
-        <f>ROUNDDOWN(E7*0.095,0)</f>
-        <v>308490</v>
+        <f>ROUNDDOWN(E7*0.085,0)</f>
+        <v>307292</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="3"/>
-        <v>2938776</v>
+        <v>3307915</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teackwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD5240-9ACA-4167-A690-D762B5BCD8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DAE6A0-A273-4CB3-95CA-F8179EA9FCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="28800" windowHeight="15345" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-21517" yWindow="1567" windowWidth="21600" windowHeight="11296" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -609,7 +609,7 @@
         <v>91</v>
       </c>
       <c r="D2" s="1">
-        <f>((B2+A2)*$M$2)</f>
+        <f>(C2*$M$2)</f>
         <v>1594411</v>
       </c>
       <c r="E2" s="1">
@@ -617,7 +617,7 @@
         <v>4035711</v>
       </c>
       <c r="F2" s="3">
-        <f>ROUNDDOWN(E2*0.085,0)</f>
+        <f t="shared" ref="F2:F7" si="1">ROUNDDOWN(E2*0.085,0)</f>
         <v>343035</v>
       </c>
       <c r="G2" s="2">
@@ -650,11 +650,11 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="1">A3+B3</f>
+        <f t="shared" ref="C3:C6" si="2">A3+B3</f>
         <v>51</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D6" si="2">((B3+A3)*$M$2)</f>
+        <f t="shared" ref="D3:D7" si="3">(C3*$M$2)</f>
         <v>893571</v>
       </c>
       <c r="E3" s="1">
@@ -662,11 +662,11 @@
         <v>3334871</v>
       </c>
       <c r="F3" s="3">
-        <f>ROUNDDOWN(E3*0.085,0)</f>
+        <f t="shared" si="1"/>
         <v>283464</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G7" si="3">E3-F3</f>
+        <f t="shared" ref="G3:G7" si="4">E3-F3</f>
         <v>3051407</v>
       </c>
       <c r="H3" s="2"/>
@@ -679,11 +679,11 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>823487</v>
       </c>
       <c r="E4" s="1">
@@ -691,11 +691,11 @@
         <v>3264787</v>
       </c>
       <c r="F4" s="3">
-        <f>ROUNDDOWN(E4*0.085,0)</f>
+        <f t="shared" si="1"/>
         <v>277506</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2987281</v>
       </c>
       <c r="H4" s="2"/>
@@ -708,11 +708,11 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>753403</v>
       </c>
       <c r="E5" s="1">
@@ -720,11 +720,11 @@
         <v>3194703</v>
       </c>
       <c r="F5" s="3">
-        <f>ROUNDDOWN(E5*0.085,0)</f>
+        <f t="shared" si="1"/>
         <v>271549</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2923154</v>
       </c>
       <c r="H5" s="2"/>
@@ -734,27 +734,27 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>83</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="2"/>
-        <v>963655</v>
+        <f t="shared" si="3"/>
+        <v>1454243</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>3404955</v>
+        <v>3895543</v>
       </c>
       <c r="F6" s="3">
-        <f>ROUNDDOWN(E6*0.085,0)</f>
-        <v>289421</v>
+        <f t="shared" si="1"/>
+        <v>331121</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>3115534</v>
+        <f t="shared" si="4"/>
+        <v>3564422</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
-        <f>(C7*$M$2)</f>
-        <v>1173907</v>
+        <f t="shared" si="3"/>
+        <v>823487</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3615207</v>
+        <v>3264787</v>
       </c>
       <c r="F7" s="3">
-        <f>ROUNDDOWN(E7*0.085,0)</f>
-        <v>307292</v>
+        <f t="shared" si="1"/>
+        <v>277506</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>3307915</v>
+        <f t="shared" si="4"/>
+        <v>2987281</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -856,23 +856,23 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E20" si="4">B12+C12+D12*2</f>
+        <f t="shared" ref="E12:E20" si="5">B12+C12+D12*2</f>
         <v>30</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F20" si="5">B12+(D12*8)</f>
+        <f t="shared" ref="F12:F20" si="6">B12+(D12*8)</f>
         <v>54</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" ref="G12:G20" si="6">B12+(D12*9)</f>
+        <f t="shared" ref="G12:G20" si="7">B12+(D12*9)</f>
         <v>58</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" ref="H12:H20" si="7">B12+(D12*10)</f>
+        <f t="shared" ref="H12:H20" si="8">B12+(D12*10)</f>
         <v>62</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:I20" si="8">B12+(D12*12)</f>
+        <f t="shared" ref="I12:I20" si="9">B12+(D12*12)</f>
         <v>70</v>
       </c>
     </row>
@@ -890,23 +890,23 @@
         <v>4</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
     </row>
@@ -924,23 +924,23 @@
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
@@ -958,23 +958,23 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
     </row>
@@ -992,23 +992,23 @@
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
@@ -1026,23 +1026,23 @@
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -1060,23 +1060,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
     </row>
@@ -1094,23 +1094,23 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
@@ -1128,23 +1128,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teackwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DAE6A0-A273-4CB3-95CA-F8179EA9FCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112336B-9605-4F46-A9B0-BEAE6BC676DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21517" yWindow="1567" windowWidth="21600" windowHeight="11296" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>823487</v>
+        <v>770924</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3264787</v>
+        <v>3212224</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>277506</v>
+        <v>273039</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>2987281</v>
+        <v>2939185</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teackwah-dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112336B-9605-4F46-A9B0-BEAE6BC676DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B160D2-7BDD-4CD4-B6DC-39135DABFD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>770924</v>
+        <v>1401680</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3212224</v>
+        <v>3842980</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>273039</v>
+        <v>326653</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>2939185</v>
+        <v>3516327</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B160D2-7BDD-4CD4-B6DC-39135DABFD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C4A314-E994-4C50-981B-BE15D6BBA165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C5E3B-D57C-409F-9ED7-18CD725AE683}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>1401680</v>
+        <v>1173907</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3842980</v>
+        <v>3615207</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>326653</v>
+        <v>307292</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>3516327</v>
+        <v>3307915</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B160D2-7BDD-4CD4-B6DC-39135DABFD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D95FB-0015-453D-BB3E-1D1144D47388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>1401680</v>
+        <v>1226470</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3842980</v>
+        <v>3667770</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>326653</v>
+        <v>311760</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>3516327</v>
+        <v>3356010</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D95FB-0015-453D-BB3E-1D1144D47388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F73C5-C83D-45E1-A69C-25B302D363D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C5E3B-D57C-409F-9ED7-18CD725AE683}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>1226470</v>
+        <v>1051260</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3667770</v>
+        <v>3492560</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>311760</v>
+        <v>296867</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>3356010</v>
+        <v>3195693</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F73C5-C83D-45E1-A69C-25B302D363D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7509127C-CD7B-475E-B112-5920A9E555DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C5E3B-D57C-409F-9ED7-18CD725AE683}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>1051260</v>
+        <v>1331596</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3492560</v>
+        <v>3772896</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>296867</v>
+        <v>320696</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>3195693</v>
+        <v>3452200</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7509127C-CD7B-475E-B112-5920A9E555DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E8AF2-DCA7-454B-B076-A9E87B420D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>1331596</v>
+        <v>1191428</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3772896</v>
+        <v>3632728</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>320696</v>
+        <v>308781</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>3452200</v>
+        <v>3323947</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E8AF2-DCA7-454B-B076-A9E87B420D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C51879-331A-4431-BFB7-912AD72A2720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -650,24 +650,23 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="2">A3+B3</f>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D7" si="3">(C3*$M$2)</f>
-        <v>893571</v>
+        <f t="shared" ref="D3:D7" si="2">(C3*$M$2)</f>
+        <v>981176</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>3334871</v>
+        <v>3422476</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="1"/>
-        <v>283464</v>
+        <v>290910</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G7" si="4">E3-F3</f>
-        <v>3051407</v>
+        <f t="shared" ref="G3:G7" si="3">E3-F3</f>
+        <v>3131566</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -679,11 +678,11 @@
         <v>28</v>
       </c>
       <c r="C4">
+        <f t="shared" ref="C3:C6" si="4">A4+B4</f>
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="3"/>
         <v>823487</v>
       </c>
       <c r="E4" s="1">
@@ -695,7 +694,7 @@
         <v>277506</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2987281</v>
       </c>
       <c r="H4" s="2"/>
@@ -708,11 +707,10 @@
         <v>24</v>
       </c>
       <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="3"/>
         <v>753403</v>
       </c>
       <c r="E5" s="1">
@@ -724,7 +722,7 @@
         <v>271549</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2923154</v>
       </c>
       <c r="H5" s="2"/>
@@ -737,24 +735,23 @@
         <v>64</v>
       </c>
       <c r="C6">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="3"/>
-        <v>1454243</v>
+        <v>1103823</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>3895543</v>
+        <v>3545123</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="1"/>
-        <v>331121</v>
+        <v>301335</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="4"/>
-        <v>3564422</v>
+        <f t="shared" si="3"/>
+        <v>3243788</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -766,7 +763,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1191428</v>
       </c>
       <c r="E7" s="1">
@@ -778,7 +775,7 @@
         <v>308781</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3323947</v>
       </c>
     </row>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teackwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C51879-331A-4431-BFB7-912AD72A2720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F0F129-315D-4E67-A364-972DE4E9BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,10 +549,10 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -650,23 +650,23 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D7" si="2">(C3*$M$2)</f>
-        <v>981176</v>
+        <v>1243991</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>3422476</v>
+        <v>3685291</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="1"/>
-        <v>290910</v>
+        <v>313249</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G7" si="3">E3-F3</f>
-        <v>3131566</v>
+        <v>3372042</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -678,7 +678,7 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C3:C6" si="4">A4+B4</f>
+        <f t="shared" ref="C4" si="4">A4+B4</f>
         <v>47</v>
       </c>
       <c r="D4" s="1">
@@ -707,23 +707,23 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>753403</v>
+        <v>735882</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>3194703</v>
+        <v>3177182</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="1"/>
-        <v>271549</v>
+        <v>270060</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="3"/>
-        <v>2923154</v>
+        <v>2907122</v>
       </c>
       <c r="H5" s="2"/>
     </row>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teackwah-dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F0F129-315D-4E67-A364-972DE4E9BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC5251C-CC41-40D9-9FC7-12709387483B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -678,24 +678,23 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4" si="4">A4+B4</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>823487</v>
+        <v>928613</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>3264787</v>
+        <v>3369913</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="1"/>
-        <v>277506</v>
+        <v>286442</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="3"/>
-        <v>2987281</v>
+        <v>3083471</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -707,23 +706,23 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>735882</v>
+        <v>753403</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>3177182</v>
+        <v>3194703</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="1"/>
-        <v>270060</v>
+        <v>271549</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="3"/>
-        <v>2907122</v>
+        <v>2923154</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -735,23 +734,23 @@
         <v>64</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>1103823</v>
+        <v>1454243</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>3545123</v>
+        <v>3895543</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="1"/>
-        <v>301335</v>
+        <v>331121</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="3"/>
-        <v>3243788</v>
+        <v>3564422</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -760,23 +759,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>1191428</v>
+        <v>1506806</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3632728</v>
+        <v>3948106</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>308781</v>
+        <v>335589</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="3"/>
-        <v>3323947</v>
+        <v>3612517</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -853,23 +852,23 @@
         <v>4</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E20" si="5">B12+C12+D12*2</f>
+        <f t="shared" ref="E12:E20" si="4">B12+C12+D12*2</f>
         <v>30</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F20" si="6">B12+(D12*8)</f>
+        <f t="shared" ref="F12:F20" si="5">B12+(D12*8)</f>
         <v>54</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" ref="G12:G20" si="7">B12+(D12*9)</f>
+        <f t="shared" ref="G12:G20" si="6">B12+(D12*9)</f>
         <v>58</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" ref="H12:H20" si="8">B12+(D12*10)</f>
+        <f t="shared" ref="H12:H20" si="7">B12+(D12*10)</f>
         <v>62</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:I20" si="9">B12+(D12*12)</f>
+        <f t="shared" ref="I12:I20" si="8">B12+(D12*12)</f>
         <v>70</v>
       </c>
     </row>
@@ -887,23 +886,23 @@
         <v>4</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="F13" s="4">
+        <v>51</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-      <c r="G13" s="4">
+        <v>55</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="H13" s="4">
+        <v>59</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" si="8"/>
-        <v>59</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="9"/>
         <v>67</v>
       </c>
     </row>
@@ -921,23 +920,23 @@
         <v>5</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="F14" s="4">
+        <v>60</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="G14" s="4">
+        <v>65</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="H14" s="4">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
@@ -955,23 +954,23 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="F15" s="4">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="G15" s="4">
+        <v>59</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="H15" s="4">
+        <v>63</v>
+      </c>
+      <c r="I15" s="4">
         <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="9"/>
         <v>71</v>
       </c>
     </row>
@@ -989,23 +988,23 @@
         <v>5</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="F16" s="4">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="G16" s="4">
+        <v>65</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="H16" s="4">
+        <v>70</v>
+      </c>
+      <c r="I16" s="4">
         <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
@@ -1023,23 +1022,23 @@
         <v>4</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="F17" s="4">
+        <v>54</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="G17" s="4">
+        <v>58</v>
+      </c>
+      <c r="H17" s="4">
         <f t="shared" si="7"/>
-        <v>58</v>
-      </c>
-      <c r="H17" s="4">
+        <v>62</v>
+      </c>
+      <c r="I17" s="4">
         <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -1057,23 +1056,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="F18" s="4">
+        <v>50</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="G18" s="4">
+        <v>54</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="H18" s="4">
+        <v>58</v>
+      </c>
+      <c r="I18" s="4">
         <f t="shared" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="9"/>
         <v>66</v>
       </c>
     </row>
@@ -1091,23 +1090,23 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="F19" s="4">
+        <v>60</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="G19" s="4">
+        <v>65</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="H19" s="4">
+        <v>70</v>
+      </c>
+      <c r="I19" s="4">
         <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
@@ -1125,23 +1124,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="F20" s="4">
+        <v>54</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="G20" s="4">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="7"/>
-        <v>58</v>
-      </c>
-      <c r="H20" s="4">
+        <v>62</v>
+      </c>
+      <c r="I20" s="4">
         <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7509127C-CD7B-475E-B112-5920A9E555DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D28B93E-5360-4B7D-BAFF-50F794739CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -763,23 +763,23 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="3"/>
-        <v>1331596</v>
+        <v>1086302</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>3772896</v>
+        <v>3527602</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>320696</v>
+        <v>299846</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="4"/>
-        <v>3452200</v>
+        <v>3227756</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E96E27A-2E25-48DB-99C9-F136708C75A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1699882-E48C-44AB-9614-8372B40E51BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>기본급</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>추가수당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,10 +74,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -128,7 +123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,12 +134,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C5E3B-D57C-409F-9ED7-18CD725AE683}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -493,16 +482,13 @@
     <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -530,28 +516,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1">
         <f>(A2*$K$2)</f>
-        <v>735882</v>
+        <v>1594411</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C7" si="0">B2+$J$2</f>
-        <v>3177182</v>
+        <v>4035711</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D7" si="1">ROUNDDOWN(C2*0.085,0)</f>
-        <v>270060</v>
+        <v>343035</v>
       </c>
       <c r="E2" s="2">
         <f>C2-D2</f>
-        <v>2907122</v>
-      </c>
-      <c r="F2" s="5">
-        <f>A2-18</f>
-        <v>24</v>
-      </c>
+        <v>3692676</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="1">
         <v>2126300</v>
       </c>
@@ -571,189 +554,115 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B7" si="2">(A3*$K$2)</f>
-        <v>876050</v>
+        <v>1243991</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>3317350</v>
+        <v>3685291</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="1"/>
-        <v>281974</v>
+        <v>313249</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E7" si="3">C3-D3</f>
-        <v>3035376</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F7" si="4">A3-18</f>
-        <v>32</v>
-      </c>
+        <v>3372042</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="2"/>
-        <v>1016218</v>
+        <v>1191428</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>3457518</v>
+        <v>3632728</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>293889</v>
+        <v>308781</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="3"/>
-        <v>3163629</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
+        <v>3323947</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="2"/>
-        <v>1086302</v>
+        <v>1138865</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>3527602</v>
+        <v>3580165</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>299846</v>
+        <v>304314</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="3"/>
-        <v>3227756</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
+        <v>3275851</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="2"/>
-        <v>1243991</v>
+        <v>911092</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>3685291</v>
+        <v>3352392</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>313249</v>
+        <v>284953</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="3"/>
-        <v>3372042</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
+        <v>3067439</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="2"/>
-        <v>1296554</v>
+        <v>718361</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>3737854</v>
+        <v>3159661</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>317717</v>
+        <v>268571</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="3"/>
-        <v>3420137</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <v>2891090</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <f>SUM(A9:A14)</f>
-        <v>53</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B9:B14)</f>
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1699882-E48C-44AB-9614-8372B40E51BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9AC313-77AC-4993-9BB7-B8535E675D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -554,23 +554,23 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B7" si="2">(A3*$K$2)</f>
-        <v>1243991</v>
+        <v>1296554</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>3685291</v>
+        <v>3737854</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="1"/>
-        <v>313249</v>
+        <v>317717</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E7" si="3">C3-D3</f>
-        <v>3372042</v>
+        <v>3420137</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -598,67 +598,67 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="2"/>
-        <v>1138865</v>
+        <v>1016218</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>3580165</v>
+        <v>3457518</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>304314</v>
+        <v>293889</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="3"/>
-        <v>3275851</v>
+        <v>3163629</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="2"/>
-        <v>911092</v>
+        <v>963655</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>3352392</v>
+        <v>3404955</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>284953</v>
+        <v>289421</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="3"/>
-        <v>3067439</v>
+        <v>3115534</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="2"/>
-        <v>718361</v>
+        <v>332899</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>3159661</v>
+        <v>2774199</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>268571</v>
+        <v>235806</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="3"/>
-        <v>2891090</v>
+        <v>2538393</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9AC313-77AC-4993-9BB7-B8535E675D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA9323-3236-497A-92A5-FEC02C40383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C5E3B-D57C-409F-9ED7-18CD725AE683}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -516,23 +516,23 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1">
         <f>(A2*$K$2)</f>
-        <v>1594411</v>
+        <v>1401680</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C7" si="0">B2+$J$2</f>
-        <v>4035711</v>
+        <v>3842980</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D7" si="1">ROUNDDOWN(C2*0.085,0)</f>
-        <v>343035</v>
+        <v>326653</v>
       </c>
       <c r="E2" s="2">
         <f>C2-D2</f>
-        <v>3692676</v>
+        <v>3516327</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1">
@@ -554,67 +554,67 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B7" si="2">(A3*$K$2)</f>
-        <v>1296554</v>
+        <v>1314075</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>3737854</v>
+        <v>3755375</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="1"/>
-        <v>317717</v>
+        <v>319206</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E7" si="3">C3-D3</f>
-        <v>3420137</v>
+        <v>3436169</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="2"/>
-        <v>1191428</v>
+        <v>1261512</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>3632728</v>
+        <v>3702812</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>308781</v>
+        <v>314739</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="3"/>
-        <v>3323947</v>
+        <v>3388073</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="2"/>
-        <v>1016218</v>
+        <v>1208949</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>3457518</v>
+        <v>3650249</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>293889</v>
+        <v>310271</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="3"/>
-        <v>3163629</v>
+        <v>3339978</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -663,6 +663,27 @@
     </row>
     <row r="8" spans="1:11">
       <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <f>SUM(A9:A11)</f>
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA9323-3236-497A-92A5-FEC02C40383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9AC313-77AC-4993-9BB7-B8535E675D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C5E3B-D57C-409F-9ED7-18CD725AE683}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -516,23 +516,23 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1">
         <f>(A2*$K$2)</f>
-        <v>1401680</v>
+        <v>1594411</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C7" si="0">B2+$J$2</f>
-        <v>3842980</v>
+        <v>4035711</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D7" si="1">ROUNDDOWN(C2*0.085,0)</f>
-        <v>326653</v>
+        <v>343035</v>
       </c>
       <c r="E2" s="2">
         <f>C2-D2</f>
-        <v>3516327</v>
+        <v>3692676</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1">
@@ -554,67 +554,67 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B7" si="2">(A3*$K$2)</f>
-        <v>1314075</v>
+        <v>1296554</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>3755375</v>
+        <v>3737854</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="1"/>
-        <v>319206</v>
+        <v>317717</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E7" si="3">C3-D3</f>
-        <v>3436169</v>
+        <v>3420137</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="2"/>
-        <v>1261512</v>
+        <v>1191428</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>3702812</v>
+        <v>3632728</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>314739</v>
+        <v>308781</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="3"/>
-        <v>3388073</v>
+        <v>3323947</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="2"/>
-        <v>1208949</v>
+        <v>1016218</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>3650249</v>
+        <v>3457518</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>310271</v>
+        <v>293889</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="3"/>
-        <v>3339978</v>
+        <v>3163629</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -663,27 +663,6 @@
     </row>
     <row r="8" spans="1:11">
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <f>SUM(A9:A11)</f>
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9AC313-77AC-4993-9BB7-B8535E675D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6725402B-B26D-49A1-96D5-3C78A457F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C5E3B-D57C-409F-9ED7-18CD725AE683}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -516,23 +516,23 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1">
         <f>(A2*$K$2)</f>
-        <v>1594411</v>
+        <v>1506806</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C7" si="0">B2+$J$2</f>
-        <v>4035711</v>
+        <v>3948106</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D7" si="1">ROUNDDOWN(C2*0.085,0)</f>
-        <v>343035</v>
+        <v>335589</v>
       </c>
       <c r="E2" s="2">
         <f>C2-D2</f>
-        <v>3692676</v>
+        <v>3612517</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1">
@@ -576,23 +576,23 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="2"/>
-        <v>1191428</v>
+        <v>1156386</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>3632728</v>
+        <v>3597686</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>308781</v>
+        <v>305803</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="3"/>
-        <v>3323947</v>
+        <v>3291883</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -663,6 +663,30 @@
     </row>
     <row r="8" spans="1:11">
       <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <f>SUM(A9:A11)</f>
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6725402B-B26D-49A1-96D5-3C78A457F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D9C2DF-4585-4C2E-A9F4-E2DCDF91CCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -516,23 +516,23 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1">
         <f>(A2*$K$2)</f>
-        <v>1506806</v>
+        <v>1419201</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C7" si="0">B2+$J$2</f>
-        <v>3948106</v>
+        <v>3860501</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D7" si="1">ROUNDDOWN(C2*0.085,0)</f>
-        <v>335589</v>
+        <v>328142</v>
       </c>
       <c r="E2" s="2">
         <f>C2-D2</f>
-        <v>3612517</v>
+        <v>3532359</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1">
@@ -576,45 +576,45 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="2"/>
-        <v>1156386</v>
+        <v>1191428</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>3597686</v>
+        <v>3632728</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>305803</v>
+        <v>308781</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="3"/>
-        <v>3291883</v>
+        <v>3323947</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="2"/>
-        <v>1016218</v>
+        <v>1103823</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>3457518</v>
+        <v>3545123</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>293889</v>
+        <v>301335</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="3"/>
-        <v>3163629</v>
+        <v>3243788</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -666,26 +666,23 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
         <f>SUM(A9:A11)</f>
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D9C2DF-4585-4C2E-A9F4-E2DCDF91CCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02012AE-0480-4112-8DC1-5F1F1EA45DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02012AE-0480-4112-8DC1-5F1F1EA45DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDBC13C-9370-41FE-A93B-BC11E4796EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924C5E3B-D57C-409F-9ED7-18CD725AE683}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -516,23 +516,23 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1">
         <f>(A2*$K$2)</f>
-        <v>1419201</v>
+        <v>1576890</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C7" si="0">B2+$J$2</f>
-        <v>3860501</v>
+        <v>4018190</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D7" si="1">ROUNDDOWN(C2*0.085,0)</f>
-        <v>328142</v>
+        <v>341546</v>
       </c>
       <c r="E2" s="2">
         <f>C2-D2</f>
-        <v>3532359</v>
+        <v>3676644</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1">
@@ -642,23 +642,23 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="2"/>
-        <v>332899</v>
+        <v>718361</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>2774199</v>
+        <v>3159661</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>235806</v>
+        <v>268571</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="3"/>
-        <v>2538393</v>
+        <v>2891090</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,23 +666,44 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
         <f>SUM(A9:A11)</f>
-        <v>81</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f>SUM(A14:A16)</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/계산 로직 엑셀.xlsx
+++ b/계산 로직 엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teckwah-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDBC13C-9370-41FE-A93B-BC11E4796EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069FE617-31A4-4390-A993-E95DC0B6A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{210C8C22-953B-459C-854A-093666811BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -598,23 +598,23 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="2"/>
-        <v>1103823</v>
+        <v>1138865</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>3545123</v>
+        <v>3580165</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>301335</v>
+        <v>304314</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="3"/>
-        <v>3243788</v>
+        <v>3275851</v>
       </c>
       <c r="F5" s="2"/>
     </row>
